--- a/Format/Classific/Diffuse Nebulae/Sh2/SH2 - 2000.xlsx
+++ b/Format/Classific/Diffuse Nebulae/Sh2/SH2 - 2000.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Astro\data\DeepSkyCatalogs\Format\Classific\Diffuse Nebulae\Sh2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="19095" windowHeight="11985"/>
+    <workbookView minimized="1" xWindow="120" yWindow="45" windowWidth="19095" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="SH2 - 2000" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1099,19 +1104,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1119,7 +1124,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -1127,7 +1132,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1135,7 +1140,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1143,35 +1148,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1179,7 +1184,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1187,14 +1192,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1202,14 +1207,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1217,7 +1222,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1225,15 +1230,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1586,56 +1598,64 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1677,7 +1697,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1709,9 +1729,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1743,6 +1764,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1918,27 +1940,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="A314" sqref="A314"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1973,7 +1995,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2012,7 +2034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2051,7 +2073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2090,7 +2112,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2129,7 +2151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2168,7 +2190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2207,7 +2229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2246,7 +2268,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2285,7 +2307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2324,7 +2346,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2363,7 +2385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2402,7 +2424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2441,7 +2463,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2480,7 +2502,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2519,7 +2541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2558,7 +2580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2597,7 +2619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2636,7 +2658,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2675,7 +2697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2714,7 +2736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2753,7 +2775,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2792,7 +2814,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2831,7 +2853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2870,7 +2892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2909,7 +2931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2948,7 +2970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2987,7 +3009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -3026,7 +3048,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -3065,7 +3087,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -3104,7 +3126,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -3143,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -3182,7 +3204,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -3221,7 +3243,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -3260,7 +3282,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -3299,7 +3321,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -3338,7 +3360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -3377,7 +3399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -3416,7 +3438,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -3455,7 +3477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -3494,7 +3516,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -3533,7 +3555,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -3572,7 +3594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -3611,7 +3633,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -3650,7 +3672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -3689,7 +3711,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -3728,7 +3750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -3767,7 +3789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -3806,7 +3828,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -3845,7 +3867,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -3884,7 +3906,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -3923,7 +3945,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -3962,7 +3984,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -4001,7 +4023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -4040,7 +4062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -4079,7 +4101,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -4118,7 +4140,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -4157,7 +4179,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -4196,7 +4218,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -4235,7 +4257,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -4274,7 +4296,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -4313,7 +4335,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -4352,7 +4374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -4391,7 +4413,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -4430,7 +4452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -4469,7 +4491,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -4508,7 +4530,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -4547,7 +4569,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -4586,7 +4608,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -4625,7 +4647,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -4664,7 +4686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -4703,7 +4725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -4742,7 +4764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -4781,7 +4803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -4820,7 +4842,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -4859,7 +4881,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -4898,7 +4920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -4937,7 +4959,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -4976,7 +4998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -5015,7 +5037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -5054,7 +5076,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -5093,7 +5115,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -5132,7 +5154,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -5171,7 +5193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -5210,7 +5232,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -5249,7 +5271,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -5288,7 +5310,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -5327,7 +5349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -5366,7 +5388,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -5405,7 +5427,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -5444,7 +5466,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -5483,7 +5505,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -5522,7 +5544,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -5561,7 +5583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -5600,7 +5622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -5639,7 +5661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -5678,7 +5700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -5717,7 +5739,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -5756,7 +5778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -5795,7 +5817,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -5834,7 +5856,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -5873,7 +5895,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -5912,7 +5934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -5951,7 +5973,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -5990,7 +6012,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -6029,7 +6051,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -6068,7 +6090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -6107,7 +6129,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -6146,7 +6168,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -6185,7 +6207,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -6224,7 +6246,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -6263,7 +6285,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -6302,7 +6324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -6341,7 +6363,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -6380,7 +6402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -6419,7 +6441,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -6458,7 +6480,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -6497,7 +6519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -6536,7 +6558,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -6575,7 +6597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -6614,7 +6636,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -6653,7 +6675,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -6692,7 +6714,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -6731,7 +6753,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -6770,7 +6792,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>127</v>
       </c>
@@ -6809,7 +6831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -6848,7 +6870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -6887,7 +6909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -6926,7 +6948,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>131</v>
       </c>
@@ -6965,7 +6987,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>132</v>
       </c>
@@ -7004,7 +7026,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>133</v>
       </c>
@@ -7043,7 +7065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>134</v>
       </c>
@@ -7082,7 +7104,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>135</v>
       </c>
@@ -7121,7 +7143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>136</v>
       </c>
@@ -7160,7 +7182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>137</v>
       </c>
@@ -7199,7 +7221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>138</v>
       </c>
@@ -7238,7 +7260,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>139</v>
       </c>
@@ -7277,7 +7299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>140</v>
       </c>
@@ -7316,7 +7338,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>141</v>
       </c>
@@ -7355,7 +7377,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>142</v>
       </c>
@@ -7394,7 +7416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>143</v>
       </c>
@@ -7433,7 +7455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>144</v>
       </c>
@@ -7472,7 +7494,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>145</v>
       </c>
@@ -7511,7 +7533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>146</v>
       </c>
@@ -7550,7 +7572,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -7589,7 +7611,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>148</v>
       </c>
@@ -7628,7 +7650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -7667,7 +7689,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -7706,7 +7728,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>151</v>
       </c>
@@ -7745,7 +7767,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -7784,7 +7806,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -7823,7 +7845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>154</v>
       </c>
@@ -7862,7 +7884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>155</v>
       </c>
@@ -7901,7 +7923,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>156</v>
       </c>
@@ -7940,7 +7962,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>157</v>
       </c>
@@ -7979,7 +8001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>158</v>
       </c>
@@ -8018,7 +8040,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>159</v>
       </c>
@@ -8057,7 +8079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>160</v>
       </c>
@@ -8096,7 +8118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -8135,7 +8157,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>162</v>
       </c>
@@ -8174,7 +8196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>163</v>
       </c>
@@ -8213,7 +8235,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>164</v>
       </c>
@@ -8252,7 +8274,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>165</v>
       </c>
@@ -8291,7 +8313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>166</v>
       </c>
@@ -8330,7 +8352,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>167</v>
       </c>
@@ -8369,7 +8391,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>168</v>
       </c>
@@ -8408,7 +8430,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>169</v>
       </c>
@@ -8447,7 +8469,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>170</v>
       </c>
@@ -8486,7 +8508,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>171</v>
       </c>
@@ -8525,7 +8547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>172</v>
       </c>
@@ -8564,7 +8586,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>173</v>
       </c>
@@ -8603,7 +8625,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>174</v>
       </c>
@@ -8642,7 +8664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>175</v>
       </c>
@@ -8681,7 +8703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>176</v>
       </c>
@@ -8720,7 +8742,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>177</v>
       </c>
@@ -8759,7 +8781,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>178</v>
       </c>
@@ -8798,7 +8820,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>179</v>
       </c>
@@ -8837,7 +8859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>180</v>
       </c>
@@ -8876,7 +8898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>181</v>
       </c>
@@ -8915,7 +8937,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>182</v>
       </c>
@@ -8954,7 +8976,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>183</v>
       </c>
@@ -8993,7 +9015,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>184</v>
       </c>
@@ -9032,7 +9054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>185</v>
       </c>
@@ -9071,7 +9093,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>186</v>
       </c>
@@ -9110,7 +9132,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>187</v>
       </c>
@@ -9149,7 +9171,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>188</v>
       </c>
@@ -9188,7 +9210,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>189</v>
       </c>
@@ -9227,7 +9249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>190</v>
       </c>
@@ -9266,7 +9288,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>191</v>
       </c>
@@ -9305,7 +9327,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>192</v>
       </c>
@@ -9344,7 +9366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>193</v>
       </c>
@@ -9383,7 +9405,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>194</v>
       </c>
@@ -9422,7 +9444,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>195</v>
       </c>
@@ -9461,7 +9483,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>196</v>
       </c>
@@ -9500,7 +9522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>197</v>
       </c>
@@ -9539,7 +9561,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>198</v>
       </c>
@@ -9578,7 +9600,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>199</v>
       </c>
@@ -9617,7 +9639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>200</v>
       </c>
@@ -9656,7 +9678,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>201</v>
       </c>
@@ -9695,7 +9717,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>202</v>
       </c>
@@ -9734,7 +9756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>203</v>
       </c>
@@ -9773,7 +9795,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>204</v>
       </c>
@@ -9812,7 +9834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>205</v>
       </c>
@@ -9851,7 +9873,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>206</v>
       </c>
@@ -9890,7 +9912,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>207</v>
       </c>
@@ -9929,7 +9951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>208</v>
       </c>
@@ -9968,7 +9990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>209</v>
       </c>
@@ -10007,7 +10029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>210</v>
       </c>
@@ -10046,7 +10068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>211</v>
       </c>
@@ -10085,7 +10107,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>212</v>
       </c>
@@ -10124,7 +10146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>213</v>
       </c>
@@ -10163,7 +10185,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>214</v>
       </c>
@@ -10202,7 +10224,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>215</v>
       </c>
@@ -10241,7 +10263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>216</v>
       </c>
@@ -10280,7 +10302,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>217</v>
       </c>
@@ -10319,7 +10341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>218</v>
       </c>
@@ -10358,7 +10380,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>219</v>
       </c>
@@ -10397,7 +10419,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>220</v>
       </c>
@@ -10436,7 +10458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>221</v>
       </c>
@@ -10475,7 +10497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>222</v>
       </c>
@@ -10514,7 +10536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>223</v>
       </c>
@@ -10553,7 +10575,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>224</v>
       </c>
@@ -10592,7 +10614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>225</v>
       </c>
@@ -10631,7 +10653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>226</v>
       </c>
@@ -10670,7 +10692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>227</v>
       </c>
@@ -10709,7 +10731,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>228</v>
       </c>
@@ -10748,7 +10770,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>229</v>
       </c>
@@ -10787,7 +10809,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>230</v>
       </c>
@@ -10826,7 +10848,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>231</v>
       </c>
@@ -10865,7 +10887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>232</v>
       </c>
@@ -10904,7 +10926,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>233</v>
       </c>
@@ -10943,7 +10965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>234</v>
       </c>
@@ -10982,7 +11004,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>235</v>
       </c>
@@ -11021,7 +11043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>236</v>
       </c>
@@ -11060,7 +11082,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>237</v>
       </c>
@@ -11099,7 +11121,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>238</v>
       </c>
@@ -11138,7 +11160,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>239</v>
       </c>
@@ -11177,7 +11199,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>240</v>
       </c>
@@ -11216,7 +11238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>241</v>
       </c>
@@ -11255,7 +11277,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>242</v>
       </c>
@@ -11294,7 +11316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>243</v>
       </c>
@@ -11333,7 +11355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>244</v>
       </c>
@@ -11372,7 +11394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>245</v>
       </c>
@@ -11411,7 +11433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>246</v>
       </c>
@@ -11450,7 +11472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>247</v>
       </c>
@@ -11489,7 +11511,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>248</v>
       </c>
@@ -11528,7 +11550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>249</v>
       </c>
@@ -11567,7 +11589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>250</v>
       </c>
@@ -11606,7 +11628,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>251</v>
       </c>
@@ -11645,7 +11667,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>252</v>
       </c>
@@ -11684,7 +11706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>253</v>
       </c>
@@ -11723,7 +11745,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>254</v>
       </c>
@@ -11762,7 +11784,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>255</v>
       </c>
@@ -11801,7 +11823,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>256</v>
       </c>
@@ -11840,7 +11862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>257</v>
       </c>
@@ -11879,7 +11901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>258</v>
       </c>
@@ -11918,7 +11940,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>259</v>
       </c>
@@ -11957,7 +11979,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>260</v>
       </c>
@@ -11996,7 +12018,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>261</v>
       </c>
@@ -12035,7 +12057,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>262</v>
       </c>
@@ -12074,7 +12096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>263</v>
       </c>
@@ -12113,7 +12135,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>264</v>
       </c>
@@ -12152,7 +12174,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>265</v>
       </c>
@@ -12191,7 +12213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>266</v>
       </c>
@@ -12230,7 +12252,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>267</v>
       </c>
@@ -12269,7 +12291,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>268</v>
       </c>
@@ -12308,7 +12330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>269</v>
       </c>
@@ -12347,7 +12369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>270</v>
       </c>
@@ -12386,7 +12408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>271</v>
       </c>
@@ -12425,7 +12447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>272</v>
       </c>
@@ -12464,7 +12486,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>273</v>
       </c>
@@ -12503,7 +12525,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>274</v>
       </c>
@@ -12542,7 +12564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>275</v>
       </c>
@@ -12581,7 +12603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>276</v>
       </c>
@@ -12620,7 +12642,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>277</v>
       </c>
@@ -12659,7 +12681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>278</v>
       </c>
@@ -12698,7 +12720,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>279</v>
       </c>
@@ -12737,7 +12759,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>280</v>
       </c>
@@ -12776,7 +12798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>281</v>
       </c>
@@ -12815,7 +12837,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>282</v>
       </c>
@@ -12854,7 +12876,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>283</v>
       </c>
@@ -12893,7 +12915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>284</v>
       </c>
@@ -12932,7 +12954,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>285</v>
       </c>
@@ -12971,7 +12993,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>286</v>
       </c>
@@ -13010,7 +13032,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>287</v>
       </c>
@@ -13049,7 +13071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>288</v>
       </c>
@@ -13088,7 +13110,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>289</v>
       </c>
@@ -13127,7 +13149,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>290</v>
       </c>
@@ -13166,7 +13188,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>291</v>
       </c>
@@ -13205,7 +13227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
         <v>292</v>
       </c>
@@ -13244,7 +13266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
         <v>293</v>
       </c>
@@ -13283,7 +13305,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
         <v>294</v>
       </c>
@@ -13322,7 +13344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
         <v>295</v>
       </c>
@@ -13361,7 +13383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
         <v>296</v>
       </c>
@@ -13400,7 +13422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
         <v>297</v>
       </c>
@@ -13439,7 +13461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
         <v>298</v>
       </c>
@@ -13478,7 +13500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
         <v>299</v>
       </c>
@@ -13517,7 +13539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
         <v>300</v>
       </c>
@@ -13556,7 +13578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
         <v>301</v>
       </c>
@@ -13595,7 +13617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
         <v>302</v>
       </c>
@@ -13634,7 +13656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>303</v>
       </c>
@@ -13673,7 +13695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
         <v>304</v>
       </c>
@@ -13712,7 +13734,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>305</v>
       </c>
@@ -13751,7 +13773,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>306</v>
       </c>
@@ -13790,7 +13812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
         <v>307</v>
       </c>
@@ -13829,7 +13851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
         <v>308</v>
       </c>
@@ -13868,7 +13890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
         <v>309</v>
       </c>
@@ -13907,7 +13929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
         <v>310</v>
       </c>
@@ -13946,7 +13968,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
         <v>311</v>
       </c>
@@ -13985,7 +14007,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
         <v>312</v>
       </c>
@@ -14024,7 +14046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
         <v>313</v>
       </c>
@@ -14063,7 +14085,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
         <v>314</v>
       </c>
@@ -14102,7 +14124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
         <v>315</v>
       </c>
@@ -14141,7 +14163,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
         <v>316</v>
       </c>
@@ -14181,6 +14203,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>